--- a/Apply.xlsx
+++ b/Apply.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R Kumar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DBB3C5-E54E-47B4-A9E3-599ACFF7EC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>Comnay Name</t>
   </si>
@@ -103,13 +109,154 @@
   </si>
   <si>
     <t>hr@axistechnolabs.com</t>
+  </si>
+  <si>
+    <t>Seven Square technosodt</t>
+  </si>
+  <si>
+    <t>sales@sevensquaretech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brooklyn Tower, SG Hwy Service Rd</t>
+  </si>
+  <si>
+    <t>Moon Technolabs</t>
+  </si>
+  <si>
+    <t>sales@moontechnolabs.com</t>
+  </si>
+  <si>
+    <t>Sarkhej - Gandhinagar Hwy, opp. Kargil Petrol Pump</t>
+  </si>
+  <si>
+    <t>Linked in</t>
+  </si>
+  <si>
+    <t>Aims Infosoft</t>
+  </si>
+  <si>
+    <t>info@aimsinfosoft.com</t>
+  </si>
+  <si>
+    <t>Bhakti Cir Rd, Nikol</t>
+  </si>
+  <si>
+    <t>info@rainstreamweb.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1204/05, Shivalik Satyamev, Bopal Ambli, Junction,</t>
+  </si>
+  <si>
+    <t>Webexpert Infotech</t>
+  </si>
+  <si>
+    <t>Visat-Gandhinagar highway, near 4d Mall, Motera</t>
+  </si>
+  <si>
+    <t>0-3Years</t>
+  </si>
+  <si>
+    <t>Synedll</t>
+  </si>
+  <si>
+    <t>Navrangpura</t>
+  </si>
+  <si>
+    <t>Code Caste Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Gandhinagar Hwy, opp. Karnavati Club Road, Prahlad Nagar</t>
+  </si>
+  <si>
+    <t>BM Coder Technologies</t>
+  </si>
+  <si>
+    <t>InheritX Solutions Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>priya.b@inheritx.com</t>
+  </si>
+  <si>
+    <t>Panch Dhara Complex, Sarkhej - Gandhinagar Hwy, Bodakdev</t>
+  </si>
+  <si>
+    <t>Shine Infosoft Technology</t>
+  </si>
+  <si>
+    <t>hr@shineinfosoft.in</t>
+  </si>
+  <si>
+    <t> behind Adani CNG Pump, off Sarkhej - Gandhinagar Highway, Makarba</t>
+  </si>
+  <si>
+    <t>company website</t>
+  </si>
+  <si>
+    <t>Webito Infotech</t>
+  </si>
+  <si>
+    <t>Sardar Patel Ring Rd, opposite Lubi Pumps, Nana Chiloda</t>
+  </si>
+  <si>
+    <t>Kunj Services Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>hr@kunjservices.com</t>
+  </si>
+  <si>
+    <t>Nr. Pakwan II Cross Roads, Sarkhej - Gandhinagar Hwy, Bodakdev</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Setu Bridge Technolabs</t>
+  </si>
+  <si>
+    <t>Pixelwibes</t>
+  </si>
+  <si>
+    <t>Odles</t>
+  </si>
+  <si>
+    <t>hello@odlesinc.com</t>
+  </si>
+  <si>
+    <t>Parex Tech</t>
+  </si>
+  <si>
+    <t>WebAppRise</t>
+  </si>
+  <si>
+    <t>Aorc Tech</t>
+  </si>
+  <si>
+    <t>hr@aorctech.com</t>
+  </si>
+  <si>
+    <t>Optimity Logics</t>
+  </si>
+  <si>
+    <t>ChandKheda</t>
+  </si>
+  <si>
+    <t>info@optimitylogics.com</t>
+  </si>
+  <si>
+    <t>MultiLine Technolabs</t>
+  </si>
+  <si>
+    <t>KrishaNagar</t>
+  </si>
+  <si>
+    <t>shivani@moontechnolabs.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +343,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -203,15 +355,54 @@
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17C96F15-BDED-449F-90B7-26BA7C05B43E}" name="Table2" displayName="Table2" ref="A1:I27" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="40% - Accent2" dataCellStyle="40% - Accent5">
+  <autoFilter ref="A1:I27" xr:uid="{17C96F15-BDED-449F-90B7-26BA7C05B43E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F197B164-14BF-414A-BEAD-8D0DBA2B9099}" name="Comnay Name" dataDxfId="3" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="2" xr3:uid="{6B6E1B86-C8BC-4467-9A5E-A13688C85D44}" name="Company Email" dataDxfId="2" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="3" xr3:uid="{2B7CFB3A-5283-4211-9E7A-8EBE8DB12F34}" name="Applied Date" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="4" xr3:uid="{44FC83EB-92CD-40BA-B411-FFA98704BD78}" name="Interview Date" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="5" xr3:uid="{8761FFD2-BAEE-44DF-AA9E-B5163A158CC7}" name="Interview Status" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="6" xr3:uid="{FEA7DCAD-72C2-4FD3-80CA-8461E68BA83B}" name="Location" dataDxfId="1" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="7" xr3:uid="{15001DE9-B580-4B02-8AB6-BB337614556C}" name="Apply" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="8" xr3:uid="{D4A3DC67-8A08-4D15-8974-7AEB51E94D97}" name="Experience" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="9" xr3:uid="{27AF2471-D822-49DC-A27D-53F07815D6AC}" name="Job Platform" dataCellStyle="40% - Accent5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +440,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,6 +474,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,9 +509,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,26 +685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="68" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -565,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -590,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -615,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -640,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -665,41 +858,468 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45637</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45637</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45637</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45640</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7">
+        <v>45640</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7">
+        <v>45640</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7">
+        <v>45640</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7">
+        <v>45640</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45642</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45647</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G100" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{F53D133E-6A94-4901-B878-93DD4FD16124}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{79ADBF35-AF44-46C9-8C3E-01AEE3081655}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{4E9D7B52-283E-48A7-893A-C3F83378FBFA}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{09365925-B321-4401-B670-274E287BD9D0}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{14D6F564-F239-477F-B27D-7709271FF876}"/>
+    <hyperlink ref="B24" r:id="rId12" xr:uid="{210503CF-509A-4D29-B919-097FBA3D2AD0}"/>
+    <hyperlink ref="B25" r:id="rId13" xr:uid="{DAB3344C-20A9-4B0F-A4E9-71A7BE951A46}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{E4A97832-B03C-4FD6-AE99-3977189EA982}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
